--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>240010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>华宝行业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>240010</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝行业精选混合</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.38</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>240010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>华宝行业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>240010</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝行业精选混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>68.13</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.54</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1212,7 +1213,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -1228,6 +1228,74 @@
       </c>
       <c r="H13" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1241,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,17 +1253,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1272,14 +1293,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.35</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1288,13 +1331,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1450,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,17 +1462,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1481,14 +1502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1497,14 +1540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.35</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1513,13 +1578,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1963,7 +1964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1974,17 +1975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1994,14 +2015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.37</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2010,14 +2053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2026,14 +2091,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.35</v>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2042,13 +2129,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,285 +455,931 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海优质成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4843</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>240010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝行业精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6610</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+      <c r="D4" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -760,7 +1406,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -790,36 +1436,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>519029</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>华夏稳增混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3141</t>
+          <t>0.4193</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -828,36 +1474,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>240010</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝行业精选混合</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>62.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6484</t>
+          <t>0.2570</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -866,36 +1512,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2894</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -904,36 +1550,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.1309</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -942,36 +1588,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001252</t>
+          <t>206013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中海进取收益灵活配置混合</t>
+          <t>鹏华宏观灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>32.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -980,36 +1626,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0826</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1018,36 +1664,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>006973</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>太平睿盈混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.0747</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1056,36 +1702,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0105</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1094,36 +1740,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000892</t>
+          <t>350005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合A</t>
+          <t>天治中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>58.26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0272</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1132,36 +1778,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>40.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1170,36 +1816,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>007669</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>太平睿盈混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>29.33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1208,29 +1854,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002028</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>九泰天宝灵活配置混合C</t>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>42.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1446,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1473,7 +2126,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1503,36 +2156,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519029</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏稳增混合</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>81.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4193</t>
+          <t>1.3141</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1541,36 +2194,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>240010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>华宝行业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>16.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>62.17</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2570</t>
+          <t>0.6484</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1579,36 +2232,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2079</t>
+          <t>0.2894</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1617,36 +2270,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1309</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1655,36 +2308,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>206013</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华宏观灵活配置混合</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32.95</t>
+          <t>82.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>8.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1693,36 +2346,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1731,36 +2384,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006973</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>太平睿盈混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>87.94</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0747</t>
+          <t>0.0116</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1769,36 +2422,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0105</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1807,36 +2460,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>350005</t>
+          <t>000892</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天治中国制造2025灵活配置混合</t>
+          <t>九泰天宝灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>58.26</t>
+          <t>68.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0272</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1845,36 +2498,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>40.93</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1883,36 +2536,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007669</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>太平睿盈混合C</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0190</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1921,850 +2574,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>002028</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.09</t>
+          <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>42.25</t>
+          <t>68.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1870</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004738</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根安隆回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1756</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012367</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>24.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1575</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1485</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1391</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012366</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.13</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1255</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011160</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国质量成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1203</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0965</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004824</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上投摩根安裕回报混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>206013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华宏观灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>36.85</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004739</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根安隆回报混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0590</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006973</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>太平睿盈混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004823</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根安裕回报混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>014938</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>同泰产业升级混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>56.49</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007669</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>太平睿盈混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>350007</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天治趋势精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>31.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>350005</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天治中国制造2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>37.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011161</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国质量成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014939</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>同泰产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>56.49</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2778,112 +2610,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6610</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.25</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.35</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -566,6 +583,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562530</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2604,7 +3131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
+++ b/数据整理/stocks/A股/上证主板/600496-精工钢构.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.52</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.35</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +2511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2626,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3131,7 +3736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
